--- a/صيدليات دكتور مصطفي طلعت_2026-01-06_20-39.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-06_20-39.xlsx
@@ -377,7 +377,10 @@
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
-    <t>6:6</t>
+    <t>6:4</t>
+  </si>
+  <si>
+    <t>0:6</t>
   </si>
   <si>
     <t>RIVO 320MG 20*10 TABS</t>
@@ -3353,17 +3356,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3411,11 +3414,11 @@
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>12</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3423,7 +3426,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3449,7 +3452,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3457,7 +3460,7 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
@@ -3475,7 +3478,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3501,7 +3504,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3527,7 +3530,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3553,7 +3556,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3579,7 +3582,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3605,7 +3608,7 @@
         <v>97</v>
       </c>
       <c t="s" r="B100" s="7">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -3631,7 +3634,7 @@
         <v>98</v>
       </c>
       <c t="s" r="B101" s="7">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3639,7 +3642,7 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
@@ -3657,7 +3660,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B102" s="7">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3683,7 +3686,7 @@
         <v>100</v>
       </c>
       <c t="s" r="B103" s="7">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3709,7 +3712,7 @@
         <v>101</v>
       </c>
       <c t="s" r="B104" s="7">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -3735,7 +3738,7 @@
         <v>102</v>
       </c>
       <c t="s" r="B105" s="7">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3761,7 +3764,7 @@
         <v>103</v>
       </c>
       <c t="s" r="B106" s="7">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3787,7 +3790,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3813,7 +3816,7 @@
         <v>105</v>
       </c>
       <c t="s" r="B108" s="7">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -3839,7 +3842,7 @@
         <v>106</v>
       </c>
       <c t="s" r="B109" s="7">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -3865,7 +3868,7 @@
         <v>107</v>
       </c>
       <c t="s" r="B110" s="7">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -3891,7 +3894,7 @@
         <v>108</v>
       </c>
       <c t="s" r="B111" s="7">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -3917,7 +3920,7 @@
         <v>109</v>
       </c>
       <c t="s" r="B112" s="7">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -3943,7 +3946,7 @@
         <v>110</v>
       </c>
       <c t="s" r="B113" s="7">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -3969,7 +3972,7 @@
         <v>111</v>
       </c>
       <c t="s" r="B114" s="7">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -3977,7 +3980,7 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
@@ -3995,7 +3998,7 @@
         <v>112</v>
       </c>
       <c t="s" r="B115" s="7">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -4021,7 +4024,7 @@
         <v>113</v>
       </c>
       <c t="s" r="B116" s="7">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -4047,7 +4050,7 @@
         <v>114</v>
       </c>
       <c t="s" r="B117" s="7">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -4073,7 +4076,7 @@
         <v>115</v>
       </c>
       <c t="s" r="B118" s="7">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -4099,7 +4102,7 @@
         <v>116</v>
       </c>
       <c t="s" r="B119" s="7">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -4107,7 +4110,7 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
@@ -4125,7 +4128,7 @@
         <v>117</v>
       </c>
       <c t="s" r="B120" s="7">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -4151,7 +4154,7 @@
         <v>118</v>
       </c>
       <c t="s" r="B121" s="7">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -4159,7 +4162,7 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
@@ -4169,7 +4172,7 @@
       </c>
       <c r="M121" s="9"/>
       <c t="s" r="N121" s="7">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -4177,7 +4180,7 @@
         <v>119</v>
       </c>
       <c t="s" r="B122" s="7">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -4185,7 +4188,7 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
@@ -4203,7 +4206,7 @@
         <v>120</v>
       </c>
       <c t="s" r="B123" s="7">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -4229,7 +4232,7 @@
         <v>121</v>
       </c>
       <c t="s" r="B124" s="7">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -4255,7 +4258,7 @@
         <v>122</v>
       </c>
       <c t="s" r="B125" s="7">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -4281,7 +4284,7 @@
         <v>123</v>
       </c>
       <c t="s" r="B126" s="7">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -4289,7 +4292,7 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c t="s" r="H126" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
@@ -4307,7 +4310,7 @@
         <v>124</v>
       </c>
       <c t="s" r="B127" s="7">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -4333,7 +4336,7 @@
         <v>125</v>
       </c>
       <c t="s" r="B128" s="7">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -4341,7 +4344,7 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c t="s" r="H128" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
@@ -4359,7 +4362,7 @@
         <v>126</v>
       </c>
       <c t="s" r="B129" s="7">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -4385,7 +4388,7 @@
         <v>127</v>
       </c>
       <c t="s" r="B130" s="7">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -4411,7 +4414,7 @@
         <v>128</v>
       </c>
       <c t="s" r="B131" s="7">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -4419,7 +4422,7 @@
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c t="s" r="H131" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
@@ -4437,7 +4440,7 @@
         <v>129</v>
       </c>
       <c t="s" r="B132" s="7">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -4445,7 +4448,7 @@
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c t="s" r="H132" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
@@ -4460,7 +4463,7 @@
     </row>
     <row r="133" ht="25.5" customHeight="1">
       <c r="K133" s="10">
-        <v>7014.4099999999999</v>
+        <v>7051.4099999999999</v>
       </c>
       <c r="L133" s="10"/>
       <c r="M133" s="10"/>
@@ -4468,19 +4471,19 @@
     </row>
     <row r="134" ht="17.25" customHeight="1">
       <c t="s" r="A134" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
       <c r="D134" s="11"/>
       <c r="E134" s="11"/>
       <c t="s" r="F134" s="12">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G134" s="12"/>
       <c r="H134" s="13"/>
       <c t="s" r="I134" s="14">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J134" s="14"/>
       <c r="K134" s="14"/>
